--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225427.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 09:27:32</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 10:54:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225427.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 10:54:49</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 11:33:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 11:33:24</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 11:53:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 11:53:08</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:02:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:02:22</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:24:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:24:19</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:34:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:34:19</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:43:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:43:23</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:51:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:51:47</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:00:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:00:32</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:22:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:22:53</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:37:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224628.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:37:36</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:46:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:46:57</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:55:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225528.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:55:18</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:09:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:09:19</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:25:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:25:46</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:34:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:34:24</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:43:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:43:57</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:52:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:52:07</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:01:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:01:02</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:24:52</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -24771,7 +24771,7 @@
         <v>43</v>
       </c>
       <c r="N206" s="0" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="O206" s="0" t="s">
         <v>105</v>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223828.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:24:52</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:38:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223828.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224828.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:38:39</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:48:12</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -7931,7 +7931,7 @@
     <t>Dique de Contenção Pilha de Estéril MMR</t>
   </si>
   <si>
-    <t>LAFARGEHOLCIM (BRASIL) S.A. Filial: LAFARGEHOLCIM (BRASIL) S.A.</t>
+    <t>CSN CIMENTOS BRASIL S.A. Filial: LAFARGEHOLCIM (BRASIL) S.A.</t>
   </si>
   <si>
     <t>60.869.336/0084-44</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224828.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225628.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:48:12</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:56:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:56:30</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:10:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:10:44</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:23:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:23:55</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:32:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:32:49</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:41:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:41:37</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:50:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225828.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:50:18</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:58:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225828.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:58:41</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:19:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:19:08</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:34:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:34:24</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:44:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:44:26</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:53:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:53:01</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:02:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:02:03</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:20:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:20:55</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:30:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:30:24</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:39:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224828.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:39:44</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:48:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224828.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:48:18</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:57:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:57:01</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:13:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:13:12</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:31:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:31:23</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:41:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:41:05</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:50:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225828.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:50:07</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:58:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225828.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:58:37</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:13:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:13:39</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:24:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:24:36</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:33:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:33:31</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:42:17</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -29320,7 +29320,7 @@
         <v>32</v>
       </c>
       <c r="R283" s="0" t="s">
-        <v>146</v>
+        <v>612</v>
       </c>
       <c r="S283" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:42:17</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:51:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:51:44</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 09:00:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 09:00:38</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 09:31:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 09:31:17</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 09:57:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 09:57:08</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 10:17:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 10:17:10</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 10:32:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 10:32:26</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 10:41:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 10:41:19</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 10:50:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 10:50:10</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 10:59:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 10:59:12</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 11:15:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221528.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 11:15:40</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 11:27:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 11:27:35</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 11:37:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224628.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 11:37:10</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 11:46:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 11:46:32</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 11:54:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220628.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 11:54:49</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:06:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:06:57</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:25:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:25:01</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:34:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:34:42</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:42:59</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4391,7 +4391,7 @@
     <t>ALTO HORIZONTE</t>
   </si>
   <si>
-    <t>232.919.869,00</t>
+    <t>235.085.772,00</t>
   </si>
   <si>
     <t>BARRAGEM DE REJEITOS PGDM</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:42:59</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 12:52:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 12:52:20</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:01:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:01:16</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:25:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:25:16</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:43:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:43:51</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 01:53:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 01:53:27</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:02:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:02:16</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:20:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:20:46</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:30:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:30:51</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:39:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224828.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:39:32</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:48:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224828.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:48:37</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 02:57:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 02:57:02</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:14:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:14:31</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:32:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:32:36</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:44:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225428.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:44:45</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 03:54:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225428.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 03:54:23</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:02:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:02:04</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:17:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222628.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:17:21</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:26:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:26:16</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:35:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223528.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:35:29</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:43:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:43:44</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 04:52:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 04:52:36</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:01:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:01:27</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:20:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:20:39</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:31:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:31:00</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:40:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:40:20</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:49:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:49:09</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 05:57:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 05:57:57</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:12:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:12:41</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:25:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222528.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:25:00</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:33:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224228.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:33:54</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:42:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224228.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:42:54</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 06:51:59</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -21084,7 +21084,7 @@
         <v>146</v>
       </c>
       <c r="S143" s="0" t="s">
-        <v>352</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144">

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 06:51:59</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:01:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221828.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:01:00</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:18:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221828.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223028.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:18:22</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:30:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223028.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:30:58</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:39:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224928.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:39:53</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:49:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224928.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:49:08</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 07:57:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221328.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 07:57:29</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:13:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221328.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:13:10</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:27:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223728.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:27:50</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:37:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223728.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224628.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:37:14</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:46:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-28.xlsx
+++ b/sigbm_download_2022-12-28.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225528.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 28/12/2022 - 08:46:12</t>
+    <t>Informação extraída do SIGBM: 28/12/2022 - 08:55:01</t>
   </si>
   <si>
     <t>ID Barragem</t>
